--- a/src/CruiseBundle/Resources/report/boarding_card.xlsx
+++ b/src/CruiseBundle/Resources/report/boarding_card.xlsx
@@ -95,14 +95,6 @@
     <t>ВНИМАНИЕ! Время отправления и прибытия теплохода указано по московскому времени.</t>
   </si>
   <si>
-    <t>Посадочный талон – документ, подтверждающий право посадки на борт теплохода, обязателен для приема и регистрации на борту теплохода.
-Настоящий посадочный талон при отсутствии печати Продавца, не имеющий подписи ответственного лица, серии и номера, является недействительным.
-Настоящий посадочный талон принимается для регистрации на борту теплохода только при наличии паспорта или свидетельства о рождении.
-Турист обязан прибыть на борт теплохода не позднее,  чем за 15 минут до отправления  теплохода в рейс.  
-После получения ключа от каюты посадочный талон остается у администратора теплохода.
-Внимание! В исключительных случаях туроператор оставляет за собой право при регистрации на теплоходе заменить категорию каюты, смену питания и место посадки в ресторане.</t>
-  </si>
-  <si>
     <t>ПОКУПАТЕЛЬ</t>
   </si>
   <si>
@@ -130,7 +122,15 @@
     <t>ПОДПИСЬ И ПЕЧАТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ИНН 9710008811, Юр.адрес: 109012 г Москва, ул Никольская, д 4/5, офис 11, Факт.адрес: 109012, г Москва, ул Никольская, д 4/5, офис 403, тел.: +7 (495) 649-83-71, р/с 40702810838000101330, в банке ПАО "СБЕРБАНК ", БИК 044525225, </t>
+    <t xml:space="preserve"> ИНН 9710008811, Юр.адрес: 109012 г Москва, ул Никольская, д 4/5, офис 403, Факт.адрес: 109012, г Москва, ул Никольская, д 4/5, офис 11, тел.: +7 (495) 649-83-71, р/с 40702810838000101330, в банке ПАО "СБЕРБАНК ", БИК 044525225, </t>
+  </si>
+  <si>
+    <t>Посадочный талон – документ, подтверждающий право посадки на борт теплохода, обязателен для приема и регистрации на борту теплохода.
+Настоящий посадочный талон при отсутствии печати Продавца, не имеющий подписи ответственного лица, является недействительным.
+Настоящий посадочный талон принимается для регистрации на борту теплохода только при наличии паспорта или свидетельства о рождении.
+Турист обязан прибыть на борт теплохода не позднее,  чем за 15 минут до отправления  теплохода в рейс.  
+После получения ключа от каюты посадочный талон остается у администратора теплохода.
+Внимание! В исключительных случаях туроператор оставляет за собой право при регистрации на теплоходе заменить категорию каюты, смену питания и место посадки в ресторане.</t>
   </si>
 </sst>
 </file>
@@ -220,48 +220,6 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -309,6 +267,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,38 +726,38 @@
   </sheetPr>
   <dimension ref="A1:IW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" style="15"/>
-    <col min="3" max="3" width="15.5" style="15"/>
-    <col min="4" max="7" width="11.6640625" style="15"/>
-    <col min="8" max="8" width="19.6640625" style="15"/>
-    <col min="9" max="9" width="6" style="15"/>
-    <col min="10" max="10" width="11.6640625" style="15"/>
-    <col min="11" max="11" width="27.6640625" style="15"/>
-    <col min="12" max="12" width="11.6640625" style="15"/>
-    <col min="13" max="257" width="11.6640625" style="16"/>
+    <col min="1" max="2" width="11.6640625" style="1"/>
+    <col min="3" max="3" width="15.5" style="1"/>
+    <col min="4" max="7" width="11.6640625" style="1"/>
+    <col min="8" max="8" width="19.6640625" style="1"/>
+    <col min="9" max="9" width="6" style="1"/>
+    <col min="10" max="10" width="11.6640625" style="1"/>
+    <col min="11" max="11" width="27.6640625" style="1"/>
+    <col min="12" max="12" width="11.6640625" style="1"/>
+    <col min="13" max="257" width="11.6640625" style="2"/>
     <col min="258" max="1025" width="11.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1006,19 +1006,19 @@
       <c r="IW1"/>
     </row>
     <row r="2" spans="1:257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="13" t="s">
-        <v>32</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -1267,17 +1267,17 @@
       <c r="IW2"/>
     </row>
     <row r="3" spans="1:257" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -1526,19 +1526,19 @@
       <c r="IW3"/>
     </row>
     <row r="4" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -1789,13 +1789,13 @@
     <row r="5" spans="1:257" ht="12" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -2046,20 +2046,20 @@
       <c r="IW5"/>
     </row>
     <row r="6" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="19"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="5"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -2307,20 +2307,20 @@
       <c r="IW6"/>
     </row>
     <row r="7" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="20"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="6"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -2568,20 +2568,20 @@
       <c r="IW7"/>
     </row>
     <row r="10" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="7"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -2829,20 +2829,20 @@
       <c r="IW10"/>
     </row>
     <row r="11" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="21"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="7"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -3090,22 +3090,22 @@
       <c r="IW11"/>
     </row>
     <row r="12" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="10" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -3353,22 +3353,22 @@
       <c r="IW12"/>
     </row>
     <row r="13" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="10" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="11"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -3616,22 +3616,22 @@
       <c r="IW13"/>
     </row>
     <row r="14" spans="1:257" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="10" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="27"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="13"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -3879,22 +3879,22 @@
       <c r="IW14"/>
     </row>
     <row r="15" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="7"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
@@ -4142,22 +4142,22 @@
       <c r="IW15"/>
     </row>
     <row r="16" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="7"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -4405,22 +4405,22 @@
       <c r="IW16"/>
     </row>
     <row r="17" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="23"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="9"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -4668,22 +4668,22 @@
       <c r="IW17"/>
     </row>
     <row r="18" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="7"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -4930,35 +4930,35 @@
       <c r="IV18"/>
       <c r="IW18"/>
     </row>
-    <row r="19" spans="1:257" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+    <row r="19" spans="1:257" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="9"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -5206,18 +5206,18 @@
       <c r="IW20"/>
     </row>
     <row r="21" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -5465,18 +5465,18 @@
       <c r="IW21"/>
     </row>
     <row r="22" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -5723,27 +5723,27 @@
       <c r="IV22"/>
       <c r="IW22"/>
     </row>
-    <row r="23" spans="1:257" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+    <row r="23" spans="1:257" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -5990,35 +5990,35 @@
       <c r="IV24"/>
       <c r="IW24"/>
     </row>
-    <row r="25" spans="1:257" s="30" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+    <row r="25" spans="1:257" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="9"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -6266,20 +6266,20 @@
       <c r="IW26"/>
     </row>
     <row r="27" spans="1:257" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>22</v>
+      <c r="A27" s="23" t="s">
+        <v>32</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="31"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="17"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -6527,18 +6527,18 @@
       <c r="IW27"/>
     </row>
     <row r="28" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -6786,18 +6786,18 @@
       <c r="IW28"/>
     </row>
     <row r="29" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -7045,18 +7045,18 @@
       <c r="IW29"/>
     </row>
     <row r="30" spans="1:257" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -7303,116 +7303,126 @@
       <c r="IV30"/>
       <c r="IW30"/>
     </row>
-    <row r="31" spans="1:257" s="23" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+    <row r="31" spans="1:257" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:257" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="32" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="32" t="s">
+      <c r="H33" s="18"/>
+      <c r="I33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="14" t="s">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="X6"/>
   <mergeCells count="54">
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
@@ -7423,33 +7433,23 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:K20"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15763888888888899" right="0.15763888888888899" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
